--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE2DA6-5B3A-43D4-BAB0-C254825CDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24855" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Dataset</t>
   </si>
@@ -64,17 +70,29 @@
   </si>
   <si>
     <t>mushroom.dat</t>
+  </si>
+  <si>
+    <t>n_items': 2113, 'avg_transaction_size': 74.0, 'n_transactions': 49046, 'density': 0.03502129673450071</t>
+  </si>
+  <si>
+    <t>pumsb.dat</t>
+  </si>
+  <si>
+    <t>pumsb_star.dat</t>
+  </si>
+  <si>
+    <t>n_items': 2089, 'avg_transaction_size': 51.482139216245976, 'n_transactions': 49046, 'density': 0.02464439407192244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,28 +152,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -452,7 +481,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,17 +511,17 @@
       <c r="C2" s="1">
         <v>469</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>34.799999999999997</v>
       </c>
       <c r="E2" s="1">
         <v>340183</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -502,17 +531,17 @@
       <c r="C3" s="1">
         <v>75</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>3196</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.49332999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -522,17 +551,17 @@
       <c r="C4" s="1">
         <v>129</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>43</v>
       </c>
       <c r="E4" s="1">
         <v>67557</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -542,17 +571,17 @@
       <c r="C5" s="1">
         <v>41270</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8.1</v>
       </c>
       <c r="E5" s="1">
         <v>990002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -562,126 +591,160 @@
       <c r="C6" s="1">
         <v>119</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>8124</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.12328</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2113</v>
+      </c>
+      <c r="D7" s="3">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1">
+        <v>49046</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.5020000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2089</v>
+      </c>
+      <c r="D8" s="3">
+        <v>51.48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>49046</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -694,24 +757,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE2DA6-5B3A-43D4-BAB0-C254825CDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB8D967-74C7-42BF-A9B0-8021AF8C7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Dataset</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>n_items': 2089, 'avg_transaction_size': 51.482139216245976, 'n_transactions': 49046, 'density': 0.02464439407192244</t>
+  </si>
+  <si>
+    <t>'n_items': 871, 'avg_transaction_size': 11.10228, 'n_transactions': 100000, 'density': 0.01274659012629162</t>
+  </si>
+  <si>
+    <t>T10I4D100K.dat</t>
+  </si>
+  <si>
+    <t>'n_items': 943, 'avg_transaction_size': 40.60507, 'n_transactions': 100000, 'density': 0.043059459172852595</t>
+  </si>
+  <si>
+    <t>T40I10D100K.dat</t>
+  </si>
+  <si>
+    <t>retail.dat</t>
+  </si>
+  <si>
+    <t>n_items': 16471, 'avg_transaction_size': 11.305755314080896, 'n_transactions': 88162, 'density': 0.0006864036982624549</t>
+  </si>
+  <si>
+    <t>'n_items': 20, 'avg_transaction_size': 16.11679, 'n_transactions': 100000, 'density': 0.8058395</t>
+  </si>
+  <si>
+    <t>T16IT20D100K.csv</t>
+  </si>
+  <si>
+    <t>Synthetic,Auto,ScikitMine</t>
+  </si>
+  <si>
+    <t>'n_items': 469, 'avg_transaction_size': 34.80789163479657, 'n_transactions': 340183, 'density': 0.07421725295265794</t>
   </si>
 </sst>
 </file>
@@ -158,10 +188,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -466,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,13 +517,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -509,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
+        <v>340183</v>
+      </c>
+      <c r="D2" s="1">
         <v>469</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="E2" s="1">
-        <v>340183</v>
-      </c>
       <c r="F2" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4219999999999994E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>3196</v>
+      </c>
+      <c r="D3" s="1">
         <v>75</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>37</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3196</v>
       </c>
       <c r="F3" s="4">
         <v>0.49332999999999999</v>
@@ -549,13 +577,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
+        <v>67557</v>
+      </c>
+      <c r="D4" s="1">
         <v>129</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>43</v>
-      </c>
-      <c r="E4" s="1">
-        <v>67557</v>
       </c>
       <c r="F4" s="4">
         <v>0.33333000000000002</v>
@@ -569,13 +597,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
+        <v>990002</v>
+      </c>
+      <c r="D5" s="1">
         <v>41270</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>8.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>990002</v>
       </c>
       <c r="F5" s="4">
         <v>1.9000000000000001E-4</v>
@@ -589,13 +617,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
+        <v>8124</v>
+      </c>
+      <c r="D6" s="1">
         <v>119</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>23</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8124</v>
       </c>
       <c r="F6" s="4">
         <v>0.12328</v>
@@ -609,13 +637,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
+        <v>49046</v>
+      </c>
+      <c r="D7" s="1">
         <v>2113</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>74</v>
-      </c>
-      <c r="E7" s="1">
-        <v>49046</v>
       </c>
       <c r="F7" s="4">
         <v>3.5020000000000003E-2</v>
@@ -629,128 +657,227 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
+        <v>49046</v>
+      </c>
+      <c r="D8" s="1">
         <v>2089</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>51.48</v>
-      </c>
-      <c r="E8" s="1">
-        <v>49046</v>
       </c>
       <c r="F8" s="4">
         <v>2.4639999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88162</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16471</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.8999999999999997E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>871</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.2749999999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>943</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.3060000000000001E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.80584</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:J18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB8D967-74C7-42BF-A9B0-8021AF8C7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEDDCC5-40AA-4E54-9771-7E857E525092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
     <sheet name="Φύλλο3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -182,14 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -494,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +519,7 @@
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,8 +538,20 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>1000</v>
+      </c>
+      <c r="J1">
+        <v>10000</v>
+      </c>
+      <c r="K1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,7 +571,7 @@
         <v>7.4219999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -568,8 +590,15 @@
       <c r="F3" s="4">
         <v>0.49332999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>2832/C3</f>
+        <v>0.88610763454317898</v>
+      </c>
+      <c r="I3">
+        <v>0.88610763454317898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -589,7 +618,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -608,8 +637,12 @@
       <c r="F5" s="4">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>22466/C5</f>
+        <v>2.2692883448720304E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -629,7 +662,7 @@
         <v>0.12328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -649,7 +682,7 @@
         <v>3.5020000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +702,7 @@
         <v>2.4639999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -689,7 +722,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -709,7 +742,7 @@
         <v>1.2749999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -729,7 +762,7 @@
         <v>4.3060000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -749,7 +782,7 @@
         <v>0.80584</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -757,7 +790,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -765,7 +798,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -773,7 +806,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -781,23 +814,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -805,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -813,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -821,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -829,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -845,7 +870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -853,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -861,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -869,7 +894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEDDCC5-40AA-4E54-9771-7E857E525092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02770112-C88C-4A76-BD7B-B7FE270D7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="H6" sqref="H6:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02770112-C88C-4A76-BD7B-B7FE270D7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56795EF9-B87C-4181-9134-223A30E20536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,9 +517,10 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,11 +548,8 @@
       <c r="J1">
         <v>10000</v>
       </c>
-      <c r="K1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +569,7 @@
         <v>7.4219999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,8 +595,11 @@
       <c r="I3">
         <v>0.88610763454317898</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.78973717146432998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -618,7 +619,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -638,11 +639,13 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="H5">
-        <f>22466/C5</f>
-        <v>2.2692883448720304E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2692883448720301E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.34443162741085E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,7 +665,7 @@
         <v>0.12328</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -682,7 +685,7 @@
         <v>3.5020000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -702,7 +705,7 @@
         <v>2.4639999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -722,7 +725,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -742,7 +745,7 @@
         <v>1.2749999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -762,7 +765,7 @@
         <v>4.3060000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -782,7 +785,7 @@
         <v>0.80584</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -790,7 +793,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -798,7 +801,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -806,7 +809,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56795EF9-B87C-4181-9134-223A30E20536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CA5DE-062C-4CAA-8EAE-00FF3F5BCF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Dataset</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>'n_items': 469, 'avg_transaction_size': 34.80789163479657, 'n_transactions': 340183, 'density': 0.07421725295265794</t>
+  </si>
+  <si>
+    <t>0.945244055068836</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,218 +554,217 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>340183</v>
+        <v>990002</v>
       </c>
       <c r="D2" s="1">
-        <v>469</v>
+        <v>41270</v>
       </c>
       <c r="E2" s="3">
-        <v>34.799999999999997</v>
+        <v>8.1</v>
       </c>
       <c r="F2" s="4">
-        <v>7.4219999999999994E-2</v>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="H2">
+        <v>2.2692883448720301E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.34443162741085E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>3196</v>
+        <v>88162</v>
       </c>
       <c r="D3" s="1">
-        <v>75</v>
+        <v>16471</v>
       </c>
       <c r="E3" s="3">
-        <v>37</v>
+        <v>11.3</v>
       </c>
       <c r="F3" s="4">
-        <v>0.49332999999999999</v>
-      </c>
-      <c r="H3">
-        <f>2832/C3</f>
-        <v>0.88610763454317898</v>
-      </c>
-      <c r="I3">
-        <v>0.88610763454317898</v>
-      </c>
-      <c r="J3">
-        <v>0.78973717146432998</v>
+        <v>6.8999999999999997E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>67557</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="1">
-        <v>129</v>
+        <v>871</v>
       </c>
       <c r="E4" s="3">
-        <v>43</v>
+        <v>11.1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.33333000000000002</v>
+        <v>1.2749999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>990002</v>
+        <v>49046</v>
       </c>
       <c r="D5" s="1">
-        <v>41270</v>
+        <v>2089</v>
       </c>
       <c r="E5" s="3">
-        <v>8.1</v>
+        <v>51.48</v>
       </c>
       <c r="F5" s="4">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="H5">
-        <v>2.2692883448720301E-2</v>
-      </c>
-      <c r="I5">
-        <v>6.34443162741085E-3</v>
+        <v>2.4639999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>8124</v>
+        <v>49046</v>
       </c>
       <c r="D6" s="1">
-        <v>119</v>
+        <v>2113</v>
       </c>
       <c r="E6" s="3">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4">
-        <v>0.12328</v>
+        <v>3.5020000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>49046</v>
+        <v>100000</v>
       </c>
       <c r="D7" s="1">
-        <v>2113</v>
+        <v>943</v>
       </c>
       <c r="E7" s="3">
-        <v>74</v>
+        <v>40.6</v>
       </c>
       <c r="F7" s="4">
-        <v>3.5020000000000003E-2</v>
+        <v>4.3060000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>49046</v>
+        <v>340183</v>
       </c>
       <c r="D8" s="1">
-        <v>2089</v>
+        <v>469</v>
       </c>
       <c r="E8" s="3">
-        <v>51.48</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F8" s="4">
-        <v>2.4639999999999999E-2</v>
+        <v>7.4219999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>88162</v>
+        <v>8124</v>
       </c>
       <c r="D9" s="1">
-        <v>16471</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3">
-        <v>11.3</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4">
-        <v>6.8999999999999997E-4</v>
+        <v>0.12328</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>100000</v>
+        <v>67557</v>
       </c>
       <c r="D10" s="1">
-        <v>871</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3">
-        <v>11.1</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4">
-        <v>1.2749999999999999E-2</v>
+        <v>0.33333000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>100000</v>
+        <v>3196</v>
       </c>
       <c r="D11" s="1">
-        <v>943</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
-        <v>40.6</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
-        <v>4.3060000000000001E-2</v>
+        <v>0.49332999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>0.88610763454317898</v>
+      </c>
+      <c r="J11">
+        <v>0.78973717146432998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -817,15 +819,19 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>144/0.58</f>
+        <v>248.27586206896552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -833,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -841,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -849,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -857,7 +863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -865,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -873,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -881,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -889,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -897,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -906,6 +912,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
+    <sortCondition ref="F2:F12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CA5DE-062C-4CAA-8EAE-00FF3F5BCF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DEC7C7-2DD8-42E2-9DF0-DB43E7528F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DEC7C7-2DD8-42E2-9DF0-DB43E7528F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE49BC-14DB-454A-99BD-27424186F0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE49BC-14DB-454A-99BD-27424186F0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA7B3FA-7DAB-433B-90BC-2B61543B39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Dataset</t>
   </si>
@@ -113,9 +113,6 @@
     <t>n_items': 16471, 'avg_transaction_size': 11.305755314080896, 'n_transactions': 88162, 'density': 0.0006864036982624549</t>
   </si>
   <si>
-    <t>'n_items': 20, 'avg_transaction_size': 16.11679, 'n_transactions': 100000, 'density': 0.8058395</t>
-  </si>
-  <si>
     <t>T16IT20D100K.csv</t>
   </si>
   <si>
@@ -125,16 +122,29 @@
     <t>'n_items': 469, 'avg_transaction_size': 34.80789163479657, 'n_transactions': 340183, 'density': 0.07421725295265794</t>
   </si>
   <si>
-    <t>0.945244055068836</t>
+    <t>T16IT20D100K.dat</t>
+  </si>
+  <si>
+    <t>L-0023</t>
+  </si>
+  <si>
+    <t>Mine, Real data</t>
+  </si>
+  <si>
+    <t>n_items': 20, 'avg_transaction_size': 16.11679, 'n_transactions': 100000, 'density': 0.8058395</t>
+  </si>
+  <si>
+    <t>FIMI, synthetic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,16 +206,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,7 +522,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +532,11 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,17 +555,17 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="G1" s="7">
         <v>100</v>
       </c>
-      <c r="I1">
+      <c r="H1" s="7">
         <v>1000</v>
       </c>
-      <c r="J1">
+      <c r="I1" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -571,14 +584,17 @@
       <c r="F2" s="4">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="1">
         <v>2.2692883448720301E-2</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="1">
         <v>6.34443162741085E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>2.3929239999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -597,50 +613,77 @@
       <c r="F3" s="4">
         <v>6.8999999999999997E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <v>1.341848E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.6410240000000001E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8.1667800000000004E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3587</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2160</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18.12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.26177864510733E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.22665179816002E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.2969054920546403E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
         <v>100000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>871</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>11.1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>1.2749999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="6">
+        <v>2.614E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>49046</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2089</v>
-      </c>
-      <c r="E5" s="3">
-        <v>51.48</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.4639999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -649,182 +692,262 @@
         <v>49046</v>
       </c>
       <c r="D6" s="1">
-        <v>2113</v>
+        <v>2089</v>
       </c>
       <c r="E6" s="3">
-        <v>74</v>
+        <v>51.48</v>
       </c>
       <c r="F6" s="4">
-        <v>3.5020000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.63108102600000004</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.47924397499999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.42480528499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1">
+        <v>49046</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2113</v>
+      </c>
+      <c r="E7" s="3">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.5020000000000003E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.95771316699999998</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.92029931099999995</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.86787913400000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
         <v>100000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>943</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>40.6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>4.3060000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G8" s="6">
+        <v>9.3280000000000002E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.303E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>340183</v>
-      </c>
-      <c r="D8" s="1">
-        <v>469</v>
-      </c>
-      <c r="E8" s="3">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7.4219999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>8124</v>
+        <v>340183</v>
       </c>
       <c r="D9" s="1">
-        <v>119</v>
+        <v>469</v>
       </c>
       <c r="E9" s="3">
-        <v>23</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F9" s="4">
-        <v>0.12328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.4219999999999994E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.81969998499999996</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.65641140200000003</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.48279308500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>67557</v>
+        <v>8124</v>
       </c>
       <c r="D10" s="1">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4">
-        <v>0.33333000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.12328</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.54948301300000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.364352536</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.226489414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1">
+        <v>67557</v>
+      </c>
+      <c r="D11" s="1">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.98351022099999996</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.96059623699999996</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.922702311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>3196</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>75</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>37</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>0.49332999999999999</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11">
+      <c r="G12" s="6">
+        <v>0.94524405506883602</v>
+      </c>
+      <c r="H12" s="6">
         <v>0.88610763454317898</v>
       </c>
-      <c r="J11">
+      <c r="I12" s="6">
         <v>0.78973717146432998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>100000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>0.80584</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <v>0.65512999999999999</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18">
         <f>144/0.58</f>
@@ -905,15 +1028,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
-    <sortCondition ref="F2:F12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="F2:F13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA7B3FA-7DAB-433B-90BC-2B61543B39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BAD9C-1AC7-46EC-BD84-C6E7D44BF902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,9 +215,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,7 +523,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,8 +907,12 @@
       <c r="G13" s="6">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="8">
+        <v>0.53742999999999996</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.37864999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BAD9C-1AC7-46EC-BD84-C6E7D44BF902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57C833-24CF-4B64-A21E-7E876FB33BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Dataset</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Synthetic,Auto,ScikitMine</t>
   </si>
   <si>
-    <t>'n_items': 469, 'avg_transaction_size': 34.80789163479657, 'n_transactions': 340183, 'density': 0.07421725295265794</t>
-  </si>
-  <si>
     <t>T16IT20D100K.dat</t>
   </si>
   <si>
@@ -135,6 +132,12 @@
   </si>
   <si>
     <t>FIMI, synthetic</t>
+  </si>
+  <si>
+    <t>n_items': 469, 'avg_transaction_size': 34.80789163479657, 'n_transactions': 340183, 'density': 0.07421725295265794</t>
+  </si>
+  <si>
+    <t>webdocs.dat</t>
   </si>
 </sst>
 </file>
@@ -143,8 +146,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -206,16 +209,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -523,7 +529,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +541,10 @@
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,33 +563,33 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>100</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>1000</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>990002</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>41270</v>
       </c>
       <c r="E2" s="3">
         <v>8.1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="10">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="G2" s="1">
@@ -594,365 +601,388 @@
       <c r="I2" s="1">
         <v>2.3929239999999998E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>8.1/41270</f>
+        <v>1.9626847589047735E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>88162</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>16471</v>
       </c>
       <c r="E3" s="3">
         <v>11.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="10">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1.341848E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>3.6410240000000001E-3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>8.1667800000000004E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>3587</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>2160</v>
       </c>
       <c r="E4" s="3">
         <v>18.12</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>8.3876000000000003E-3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>3.26177864510733E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>1.22665179816002E-2</v>
       </c>
       <c r="I4">
         <v>5.2969054920546403E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8">
         <v>100000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>871</v>
       </c>
       <c r="E5" s="3">
         <v>11.1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>2.614E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>49046</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>2089</v>
       </c>
       <c r="E6" s="3">
         <v>51.48</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.63108102600000004</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.47924397499999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.42480528499999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>49046</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>2113</v>
       </c>
       <c r="E7" s="3">
         <v>74</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.95771316699999998</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.92029931099999995</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.86787913400000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8">
         <v>100000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>943</v>
       </c>
       <c r="E8" s="3">
         <v>40.6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>4.3060000000000001E-2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>9.3280000000000002E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>1.303E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>340183</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="8">
         <v>469</v>
       </c>
       <c r="E9" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.81969998499999996</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.65641140200000003</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.48279308500000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>8124</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <v>119</v>
       </c>
       <c r="E10" s="3">
         <v>23</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>0.12328</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.54948301300000002</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.364352536</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.226489414</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>67557</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="8">
         <v>129</v>
       </c>
       <c r="E11" s="3">
         <v>43</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>0.33333000000000002</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.98351022099999996</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.96059623699999996</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.922702311</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>3196</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>37</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>0.49332999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.94524405506883602</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.88610763454317898</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.78973717146432998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>100000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>0.80584</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0.53742999999999996</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.37864999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1692082</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5267656</v>
+      </c>
+      <c r="E14" s="3">
+        <v>177.2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.3645000000000001E-5</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="M16" s="9">
+        <v>3.3645000000000001E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="M18">
         <f>144/0.58</f>
@@ -995,7 +1025,7 @@
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1003,7 +1033,7 @@
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1027,7 +1057,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1035,8 +1065,8 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>32</v>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57C833-24CF-4B64-A21E-7E876FB33BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3298AC2A-0B0E-4ADC-A606-E0368B8A2DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1560" windowWidth="21600" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>webdocs.dat</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -146,8 +149,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +184,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,23 +220,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -529,7 +566,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,8 +577,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -563,15 +599,20 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>100</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>1000</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="10">
         <v>10000</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -580,30 +621,35 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>990002</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>41270</v>
       </c>
       <c r="E2" s="3">
         <v>8.1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="12">
         <v>2.2692883448720301E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="12">
         <v>6.34443162741085E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="13">
         <v>2.3929239999999998E-3</v>
       </c>
-      <c r="K2">
-        <f>8.1/41270</f>
-        <v>1.9626847589047735E-4</v>
+      <c r="J2" s="18">
+        <v>100</v>
+      </c>
+      <c r="K2" s="18">
+        <v>917</v>
+      </c>
+      <c r="L2" s="18">
+        <v>3481</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -613,26 +659,35 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>88162</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>16471</v>
       </c>
       <c r="E3" s="3">
         <v>11.3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="14">
         <v>1.341848E-2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="14">
         <v>3.6410240000000001E-3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="15">
         <v>8.1667800000000004E-4</v>
+      </c>
+      <c r="J3" s="18">
+        <v>98</v>
+      </c>
+      <c r="K3" s="18">
+        <v>509</v>
+      </c>
+      <c r="L3" s="18">
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -642,26 +697,35 @@
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3587</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>2160</v>
       </c>
       <c r="E4" s="3">
         <v>18.12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>8.3876000000000003E-3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="14">
         <v>3.26177864510733E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="14">
         <v>1.22665179816002E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="16">
         <v>5.2969054920546403E-3</v>
+      </c>
+      <c r="J4" s="18">
+        <v>69</v>
+      </c>
+      <c r="K4" s="18">
+        <v>143</v>
+      </c>
+      <c r="L4" s="18">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -671,26 +735,35 @@
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>100000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>871</v>
       </c>
       <c r="E5" s="3">
         <v>11.1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="14">
         <v>2.614E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="14">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="15">
         <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="J5" s="18">
+        <v>98</v>
+      </c>
+      <c r="K5" s="18">
+        <v>660</v>
+      </c>
+      <c r="L5" s="18">
+        <v>953</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -700,26 +773,35 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>49046</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>2089</v>
       </c>
       <c r="E6" s="3">
         <v>51.48</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="14">
         <v>0.63108102600000004</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="14">
         <v>0.47924397499999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="15">
         <v>0.42480528499999998</v>
+      </c>
+      <c r="J6" s="18">
+        <v>49</v>
+      </c>
+      <c r="K6" s="18">
+        <v>356</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1286</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -729,26 +811,35 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>49046</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2113</v>
       </c>
       <c r="E7" s="3">
         <v>74</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <v>0.95771316699999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="14">
         <v>0.92029931099999995</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="15">
         <v>0.86787913400000005</v>
+      </c>
+      <c r="J7" s="18">
+        <v>64</v>
+      </c>
+      <c r="K7" s="18">
+        <v>511</v>
+      </c>
+      <c r="L7" s="18">
+        <v>2444</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -758,26 +849,35 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>100000</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>943</v>
       </c>
       <c r="E8" s="3">
         <v>40.6</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>4.3060000000000001E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="14">
         <v>9.3280000000000002E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="14">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="15">
         <v>1.303E-2</v>
+      </c>
+      <c r="J8" s="18">
+        <v>97</v>
+      </c>
+      <c r="K8" s="18">
+        <v>865</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2117</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -787,26 +887,35 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>340183</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>469</v>
       </c>
       <c r="E9" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="14">
         <v>0.81969998499999996</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="14">
         <v>0.65641140200000003</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="15">
         <v>0.48279308500000001</v>
+      </c>
+      <c r="J9" s="18">
+        <v>100</v>
+      </c>
+      <c r="K9" s="18">
+        <v>986</v>
+      </c>
+      <c r="L9" s="18">
+        <v>9137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -816,26 +925,35 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>8124</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>119</v>
       </c>
       <c r="E10" s="3">
         <v>23</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.12328</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="14">
         <v>0.54948301300000002</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="14">
         <v>0.364352536</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="15">
         <v>0.226489414</v>
+      </c>
+      <c r="J10" s="18">
+        <v>31</v>
+      </c>
+      <c r="K10" s="18">
+        <v>164</v>
+      </c>
+      <c r="L10" s="18">
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,26 +963,35 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>67557</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>129</v>
       </c>
       <c r="E11" s="3">
         <v>43</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>0.33333000000000002</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="14">
         <v>0.98351022099999996</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="14">
         <v>0.96059623699999996</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="15">
         <v>0.922702311</v>
+      </c>
+      <c r="J11" s="18">
+        <v>76</v>
+      </c>
+      <c r="K11" s="18">
+        <v>423</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -874,26 +1001,35 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>3196</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>37</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>0.49332999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>0.94524405506883602</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="14">
         <v>0.88610763454317898</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="15">
         <v>0.78973717146432998</v>
+      </c>
+      <c r="J12" s="18">
+        <v>71</v>
+      </c>
+      <c r="K12" s="18">
+        <v>247</v>
+      </c>
+      <c r="L12" s="18">
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -903,26 +1039,35 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>100000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>0.80584</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="14">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="17">
         <v>0.53742999999999996</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="15">
         <v>0.37864999999999999</v>
+      </c>
+      <c r="J13" s="18">
+        <v>91</v>
+      </c>
+      <c r="K13" s="18">
+        <v>523</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1581</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -932,64 +1077,67 @@
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>1692082</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>5267656</v>
       </c>
       <c r="E14" s="3">
         <v>177.2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>3.3645000000000001E-5</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="M16" s="9">
-        <v>3.3645000000000001E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M18">
-        <f>144/0.58</f>
-        <v>248.27586206896552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1073,6 +1221,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
     <sortCondition ref="F2:F13"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3298AC2A-0B0E-4ADC-A606-E0368B8A2DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FB62B-DB66-4F66-BD44-A2AF92E13B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1560" windowWidth="21600" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1080" windowWidth="17205" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Transactions</t>
   </si>
   <si>
-    <t>avg_transaction_size</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>avg transaction size</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -249,9 +249,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -259,6 +256,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -566,26 +569,26 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -593,11 +596,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="5">
         <v>100</v>
@@ -608,15 +611,15 @@
       <c r="I1" s="10">
         <v>10000</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -633,28 +636,28 @@
       <c r="F2" s="8">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>2.2692883448720301E-2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>6.34443162741085E-3</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>2.3929239999999998E-3</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>100</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>917</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>3481</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -671,31 +674,31 @@
       <c r="F3" s="8">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>1.341848E-2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>3.6410240000000001E-3</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>8.1667800000000004E-4</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>98</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <v>509</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>3587</v>
@@ -709,31 +712,31 @@
       <c r="F4" s="8">
         <v>8.3876000000000003E-3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>3.26177864510733E-2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>1.22665179816002E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>5.2969054920546403E-3</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>69</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <v>143</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6">
         <v>100000</v>
@@ -747,28 +750,28 @@
       <c r="F5" s="8">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>2.614E-2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>98</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>660</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>953</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -785,28 +788,28 @@
       <c r="F6" s="8">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.63108102600000004</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.47924397499999999</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>0.42480528499999998</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>49</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>356</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>1286</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -823,31 +826,31 @@
       <c r="F7" s="8">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.95771316699999998</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0.92029931099999995</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>0.86787913400000005</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>64</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>511</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>2444</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>100000</v>
@@ -861,22 +864,22 @@
       <c r="F8" s="8">
         <v>4.3060000000000001E-2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>9.3280000000000002E-2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>1.303E-2</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>97</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>865</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>2117</v>
       </c>
     </row>
@@ -899,28 +902,28 @@
       <c r="F9" s="8">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.81969998499999996</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>0.65641140200000003</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>0.48279308500000001</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>100</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>986</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>9137</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -937,28 +940,28 @@
       <c r="F10" s="8">
         <v>0.12328</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.54948301300000002</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.364352536</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>0.226489414</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>31</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>164</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -975,28 +978,28 @@
       <c r="F11" s="8">
         <v>0.33333000000000002</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0.98351022099999996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.96059623699999996</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>0.922702311</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>76</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>423</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -1013,31 +1016,31 @@
       <c r="F12" s="8">
         <v>0.49332999999999999</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.94524405506883602</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.88610763454317898</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>0.78973717146432998</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>71</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>247</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6">
         <v>100000</v>
@@ -1051,28 +1054,28 @@
       <c r="F13" s="8">
         <v>0.80584</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>0.53742999999999996</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>0.37864999999999999</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>91</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>523</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>1581</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -1089,12 +1092,16 @@
       <c r="F14" s="9">
         <v>3.3645000000000001E-5</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="G14" s="11">
+        <v>0.327204591739643</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.21611186691897899</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1103,12 +1110,12 @@
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1117,12 +1124,12 @@
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,87 +1141,87 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FB62B-DB66-4F66-BD44-A2AF92E13B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03C1497-4067-4B66-8BCD-94C4BF0E6556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1080" windowWidth="17205" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -256,11 +256,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +569,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -611,11 +611,11 @@
       <c r="I1" s="10">
         <v>10000</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -795,7 +795,7 @@
         <v>0.47924397499999999</v>
       </c>
       <c r="I6" s="14">
-        <v>0.42480528499999998</v>
+        <v>0.42480528483464502</v>
       </c>
       <c r="J6" s="17">
         <v>49</v>
@@ -830,7 +830,7 @@
         <v>0.95771316699999998</v>
       </c>
       <c r="H7" s="13">
-        <v>0.92029931099999995</v>
+        <v>0.920299310851037</v>
       </c>
       <c r="I7" s="14">
         <v>0.86787913400000005</v>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03C1497-4067-4B66-8BCD-94C4BF0E6556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC392729-BB56-4646-A9E2-1BE81314C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>avg transaction size</t>
+  </si>
+  <si>
+    <t>1-Items in TopK</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -262,6 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -566,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,9 +592,11 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,8 +629,13 @@
       </c>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,8 +672,17 @@
       <c r="L2" s="17">
         <v>3481</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="20">
+        <v>22</v>
+      </c>
+      <c r="N2" s="20">
+        <v>104</v>
+      </c>
+      <c r="O2" s="20">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -692,8 +719,17 @@
       <c r="L3" s="17">
         <v>758</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="20">
+        <v>38</v>
+      </c>
+      <c r="N3" s="20">
+        <v>375</v>
+      </c>
+      <c r="O3" s="20">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -730,8 +766,17 @@
       <c r="L4" s="17">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="20">
+        <v>90</v>
+      </c>
+      <c r="N4" s="20">
+        <v>482</v>
+      </c>
+      <c r="O4" s="20">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -768,8 +813,17 @@
       <c r="L5" s="17">
         <v>953</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="20">
+        <v>100</v>
+      </c>
+      <c r="N5" s="20">
+        <v>561</v>
+      </c>
+      <c r="O5" s="20">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -806,8 +860,17 @@
       <c r="L6" s="17">
         <v>1286</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="20">
+        <v>12</v>
+      </c>
+      <c r="N6" s="20">
+        <v>34</v>
+      </c>
+      <c r="O6" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -844,8 +907,17 @@
       <c r="L7" s="17">
         <v>2444</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="20">
+        <v>12</v>
+      </c>
+      <c r="N7" s="20">
+        <v>18</v>
+      </c>
+      <c r="O7" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -882,8 +954,17 @@
       <c r="L8" s="17">
         <v>2117</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="20">
+        <v>100</v>
+      </c>
+      <c r="N8" s="20">
+        <v>516</v>
+      </c>
+      <c r="O8" s="20">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -920,8 +1001,17 @@
       <c r="L9" s="17">
         <v>9137</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="20">
+        <v>9</v>
+      </c>
+      <c r="N9" s="20">
+        <v>18</v>
+      </c>
+      <c r="O9" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -958,8 +1048,17 @@
       <c r="L10" s="17">
         <v>368</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="20">
+        <v>11</v>
+      </c>
+      <c r="N10" s="20">
+        <v>24</v>
+      </c>
+      <c r="O10" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,8 +1095,17 @@
       <c r="L11" s="17">
         <v>1605</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="20">
+        <v>10</v>
+      </c>
+      <c r="N11" s="20">
+        <v>15</v>
+      </c>
+      <c r="O11" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1034,8 +1142,17 @@
       <c r="L12" s="17">
         <v>556</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="20">
+        <v>11</v>
+      </c>
+      <c r="N12" s="20">
+        <v>16</v>
+      </c>
+      <c r="O12" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1072,8 +1189,17 @@
       <c r="L13" s="17">
         <v>1581</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="20">
+        <v>20</v>
+      </c>
+      <c r="N13" s="20">
+        <v>20</v>
+      </c>
+      <c r="O13" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1102,8 +1228,15 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="20">
+        <v>17</v>
+      </c>
+      <c r="N14" s="20">
+        <v>50</v>
+      </c>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
@@ -1116,8 +1249,11 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
@@ -1130,7 +1266,9 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
@@ -1228,8 +1366,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
     <sortCondition ref="F2:F13"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC392729-BB56-4646-A9E2-1BE81314C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D53466-423D-4483-9349-0DA3562003BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,11 +268,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,16 +624,16 @@
       <c r="I1" s="10">
         <v>10000</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -672,13 +672,13 @@
       <c r="L2" s="17">
         <v>3481</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>22</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>104</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="19">
         <v>434</v>
       </c>
     </row>
@@ -719,13 +719,13 @@
       <c r="L3" s="17">
         <v>758</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>38</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>375</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="19">
         <v>2618</v>
       </c>
     </row>
@@ -766,13 +766,13 @@
       <c r="L4" s="17">
         <v>168</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>90</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>482</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>972</v>
       </c>
     </row>
@@ -813,13 +813,13 @@
       <c r="L5" s="17">
         <v>953</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>100</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>561</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>730</v>
       </c>
     </row>
@@ -860,13 +860,13 @@
       <c r="L6" s="17">
         <v>1286</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>12</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>34</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>45</v>
       </c>
     </row>
@@ -907,13 +907,13 @@
       <c r="L7" s="17">
         <v>2444</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>12</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>18</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>21</v>
       </c>
     </row>
@@ -954,13 +954,13 @@
       <c r="L8" s="17">
         <v>2117</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>100</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>516</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>711</v>
       </c>
     </row>
@@ -1001,13 +1001,13 @@
       <c r="L9" s="17">
         <v>9137</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>9</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>18</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>26</v>
       </c>
     </row>
@@ -1048,13 +1048,13 @@
       <c r="L10" s="17">
         <v>368</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>11</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>24</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>40</v>
       </c>
     </row>
@@ -1095,13 +1095,13 @@
       <c r="L11" s="17">
         <v>1605</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>10</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>15</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>19</v>
       </c>
     </row>
@@ -1142,13 +1142,13 @@
       <c r="L12" s="17">
         <v>556</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>11</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>16</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>21</v>
       </c>
     </row>
@@ -1189,13 +1189,13 @@
       <c r="L13" s="17">
         <v>1581</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>20</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>20</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>20</v>
       </c>
     </row>
@@ -1228,13 +1228,13 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>17</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>50</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1249,9 +1249,9 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1266,9 +1266,9 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D53466-423D-4483-9349-0DA3562003BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56194F-E86E-416A-AE0D-6956AD0D2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56194F-E86E-416A-AE0D-6956AD0D2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96ADB7-D04A-4CDE-8910-C9F460A757B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96ADB7-D04A-4CDE-8910-C9F460A757B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B328B50-F9D0-460E-B04B-16B61BBB6D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B328B50-F9D0-460E-B04B-16B61BBB6D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51C51A-C476-49BB-ABD6-E6111B98291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -174,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -256,7 +263,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -270,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,7 +589,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +618,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -621,258 +630,248 @@
       <c r="H1" s="5">
         <v>1000</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>10000</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>990002</v>
+        <v>1692082</v>
       </c>
       <c r="D2" s="6">
-        <v>41270</v>
+        <v>5267656</v>
       </c>
       <c r="E2" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2.2692883448720301E-2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>6.34443162741085E-3</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2.3929239999999998E-3</v>
-      </c>
-      <c r="J2" s="17">
-        <v>100</v>
-      </c>
-      <c r="K2" s="17">
-        <v>917</v>
-      </c>
-      <c r="L2" s="17">
-        <v>3481</v>
-      </c>
-      <c r="M2" s="19">
-        <v>22</v>
-      </c>
-      <c r="N2" s="19">
-        <v>104</v>
-      </c>
-      <c r="O2" s="19">
-        <v>434</v>
-      </c>
+        <v>177.2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3.3645000000000001E-5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.327204591739643</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.21611186691897899</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18">
+        <v>17</v>
+      </c>
+      <c r="N2" s="18">
+        <v>50</v>
+      </c>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6">
+        <v>990002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>41270</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2.2692883448720301E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6.34443162741085E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2.3929239999999998E-3</v>
+      </c>
+      <c r="J3" s="16">
+        <v>100</v>
+      </c>
+      <c r="K3" s="16">
+        <v>917</v>
+      </c>
+      <c r="L3" s="16">
+        <v>3481</v>
+      </c>
+      <c r="M3" s="18">
+        <v>22</v>
+      </c>
+      <c r="N3" s="18">
+        <v>104</v>
+      </c>
+      <c r="O3" s="18">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
         <v>88162</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>16471</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>11.3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="20">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="12">
         <v>1.341848E-2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H4" s="12">
         <v>3.6410240000000001E-3</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I4" s="13">
         <v>8.1667800000000004E-4</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J4" s="16">
         <v>98</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K4" s="16">
         <v>509</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L4" s="16">
         <v>758</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M4" s="18">
         <v>38</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N4" s="18">
         <v>375</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O4" s="18">
         <v>2618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3587</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2160</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18.12</v>
-      </c>
-      <c r="F4" s="8">
-        <v>8.3876000000000003E-3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>3.26177864510733E-2</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1.22665179816002E-2</v>
-      </c>
-      <c r="I4" s="15">
-        <v>5.2969054920546403E-3</v>
-      </c>
-      <c r="J4" s="17">
-        <v>69</v>
-      </c>
-      <c r="K4" s="17">
-        <v>143</v>
-      </c>
-      <c r="L4" s="17">
-        <v>168</v>
-      </c>
-      <c r="M4" s="19">
-        <v>90</v>
-      </c>
-      <c r="N4" s="19">
-        <v>482</v>
-      </c>
-      <c r="O4" s="19">
-        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3587</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2160</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18.12</v>
+      </c>
+      <c r="F5" s="20">
+        <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3.26177864510733E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.22665179816002E-2</v>
+      </c>
+      <c r="I5" s="14">
+        <v>5.2969054920546403E-3</v>
+      </c>
+      <c r="J5" s="16">
+        <v>69</v>
+      </c>
+      <c r="K5" s="16">
+        <v>143</v>
+      </c>
+      <c r="L5" s="16">
+        <v>168</v>
+      </c>
+      <c r="M5" s="18">
+        <v>90</v>
+      </c>
+      <c r="N5" s="18">
+        <v>482</v>
+      </c>
+      <c r="O5" s="18">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>100000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>871</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>11.1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="20">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="12">
         <v>2.614E-2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H6" s="12">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I6" s="13">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J6" s="16">
         <v>98</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K6" s="16">
         <v>660</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L6" s="16">
         <v>953</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M6" s="18">
         <v>100</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N6" s="18">
         <v>561</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O6" s="18">
         <v>730</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>49046</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2089</v>
-      </c>
-      <c r="E6" s="3">
-        <v>51.48</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2.4639999999999999E-2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.63108102600000004</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.47924397499999999</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.42480528483464502</v>
-      </c>
-      <c r="J6" s="17">
-        <v>49</v>
-      </c>
-      <c r="K6" s="17">
-        <v>356</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1286</v>
-      </c>
-      <c r="M6" s="19">
-        <v>12</v>
-      </c>
-      <c r="N6" s="19">
-        <v>34</v>
-      </c>
-      <c r="O6" s="19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -881,360 +880,370 @@
         <v>49046</v>
       </c>
       <c r="D7" s="6">
-        <v>2113</v>
+        <v>2089</v>
       </c>
       <c r="E7" s="3">
-        <v>74</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3.5020000000000003E-2</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.95771316699999998</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.920299310851037</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0.86787913400000005</v>
-      </c>
-      <c r="J7" s="17">
-        <v>64</v>
-      </c>
-      <c r="K7" s="17">
-        <v>511</v>
-      </c>
-      <c r="L7" s="17">
-        <v>2444</v>
-      </c>
-      <c r="M7" s="19">
+        <v>51.48</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.63108102600000004</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.47924397499999999</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.42480528483464502</v>
+      </c>
+      <c r="J7" s="16">
+        <v>49</v>
+      </c>
+      <c r="K7" s="16">
+        <v>356</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1286</v>
+      </c>
+      <c r="M7" s="18">
         <v>12</v>
       </c>
-      <c r="N7" s="19">
-        <v>18</v>
-      </c>
-      <c r="O7" s="19">
-        <v>21</v>
+      <c r="N7" s="18">
+        <v>34</v>
+      </c>
+      <c r="O7" s="18">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6">
-        <v>100000</v>
+        <v>49046</v>
       </c>
       <c r="D8" s="6">
-        <v>943</v>
+        <v>2113</v>
       </c>
       <c r="E8" s="3">
-        <v>40.6</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4.3060000000000001E-2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>9.3280000000000002E-2</v>
-      </c>
-      <c r="H8" s="13">
-        <v>2.6689999999999998E-2</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1.303E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>97</v>
-      </c>
-      <c r="K8" s="17">
-        <v>865</v>
-      </c>
-      <c r="L8" s="17">
-        <v>2117</v>
-      </c>
-      <c r="M8" s="19">
-        <v>100</v>
-      </c>
-      <c r="N8" s="19">
-        <v>516</v>
-      </c>
-      <c r="O8" s="19">
-        <v>711</v>
+        <v>74</v>
+      </c>
+      <c r="F8" s="20">
+        <v>3.5020000000000003E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.95771316699999998</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.920299310851037</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.86787913400000005</v>
+      </c>
+      <c r="J8" s="16">
+        <v>64</v>
+      </c>
+      <c r="K8" s="16">
+        <v>511</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2444</v>
+      </c>
+      <c r="M8" s="18">
+        <v>12</v>
+      </c>
+      <c r="N8" s="18">
+        <v>18</v>
+      </c>
+      <c r="O8" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6">
-        <v>340183</v>
+        <v>100000</v>
       </c>
       <c r="D9" s="6">
-        <v>469</v>
+        <v>943</v>
       </c>
       <c r="E9" s="3">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.4219999999999994E-2</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.81969998499999996</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.65641140200000003</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.48279308500000001</v>
-      </c>
-      <c r="J9" s="17">
+        <v>40.6</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4.3060000000000001E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9.3280000000000002E-2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1.303E-2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>97</v>
+      </c>
+      <c r="K9" s="16">
+        <v>865</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2117</v>
+      </c>
+      <c r="M9" s="18">
         <v>100</v>
       </c>
-      <c r="K9" s="17">
-        <v>986</v>
-      </c>
-      <c r="L9" s="17">
-        <v>9137</v>
-      </c>
-      <c r="M9" s="19">
-        <v>9</v>
-      </c>
-      <c r="N9" s="19">
-        <v>18</v>
-      </c>
-      <c r="O9" s="19">
-        <v>26</v>
+      <c r="N9" s="18">
+        <v>516</v>
+      </c>
+      <c r="O9" s="18">
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>8124</v>
+        <v>340183</v>
       </c>
       <c r="D10" s="6">
-        <v>119</v>
+        <v>469</v>
       </c>
       <c r="E10" s="3">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.12328</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.54948301300000002</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.364352536</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0.226489414</v>
-      </c>
-      <c r="J10" s="17">
-        <v>31</v>
-      </c>
-      <c r="K10" s="17">
-        <v>164</v>
-      </c>
-      <c r="L10" s="17">
-        <v>368</v>
-      </c>
-      <c r="M10" s="19">
-        <v>11</v>
-      </c>
-      <c r="N10" s="19">
-        <v>24</v>
-      </c>
-      <c r="O10" s="19">
-        <v>40</v>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F10" s="20">
+        <v>7.4219999999999994E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.81969998499999996</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.65641140200000003</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.48279308500000001</v>
+      </c>
+      <c r="J10" s="16">
+        <v>100</v>
+      </c>
+      <c r="K10" s="16">
+        <v>986</v>
+      </c>
+      <c r="L10" s="16">
+        <v>9137</v>
+      </c>
+      <c r="M10" s="18">
+        <v>9</v>
+      </c>
+      <c r="N10" s="18">
+        <v>18</v>
+      </c>
+      <c r="O10" s="18">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>67557</v>
+        <v>8124</v>
       </c>
       <c r="D11" s="6">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E11" s="3">
-        <v>43</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.33333000000000002</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.98351022099999996</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.96059623699999996</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.922702311</v>
-      </c>
-      <c r="J11" s="17">
-        <v>76</v>
-      </c>
-      <c r="K11" s="17">
-        <v>423</v>
-      </c>
-      <c r="L11" s="17">
-        <v>1605</v>
-      </c>
-      <c r="M11" s="19">
-        <v>10</v>
-      </c>
-      <c r="N11" s="19">
-        <v>15</v>
-      </c>
-      <c r="O11" s="19">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.12328</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.54948301300000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.364352536</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.226489414</v>
+      </c>
+      <c r="J11" s="16">
+        <v>31</v>
+      </c>
+      <c r="K11" s="16">
+        <v>164</v>
+      </c>
+      <c r="L11" s="16">
+        <v>368</v>
+      </c>
+      <c r="M11" s="18">
+        <v>11</v>
+      </c>
+      <c r="N11" s="18">
+        <v>24</v>
+      </c>
+      <c r="O11" s="18">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>3196</v>
+        <v>67557</v>
       </c>
       <c r="D12" s="6">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.49332999999999999</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.94524405506883602</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.88610763454317898</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.78973717146432998</v>
-      </c>
-      <c r="J12" s="17">
-        <v>71</v>
-      </c>
-      <c r="K12" s="17">
-        <v>247</v>
-      </c>
-      <c r="L12" s="17">
-        <v>556</v>
-      </c>
-      <c r="M12" s="19">
-        <v>11</v>
-      </c>
-      <c r="N12" s="19">
-        <v>16</v>
-      </c>
-      <c r="O12" s="19">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.98351022099999996</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.96059623699999996</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.922702311</v>
+      </c>
+      <c r="J12" s="16">
+        <v>76</v>
+      </c>
+      <c r="K12" s="16">
+        <v>423</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1605</v>
+      </c>
+      <c r="M12" s="18">
+        <v>10</v>
+      </c>
+      <c r="N12" s="18">
+        <v>15</v>
+      </c>
+      <c r="O12" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>100000</v>
+        <v>3196</v>
       </c>
       <c r="D13" s="6">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.80584</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.65512999999999999</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0.53742999999999996</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0.37864999999999999</v>
-      </c>
-      <c r="J13" s="17">
-        <v>91</v>
-      </c>
-      <c r="K13" s="17">
-        <v>523</v>
-      </c>
-      <c r="L13" s="17">
-        <v>1581</v>
-      </c>
-      <c r="M13" s="19">
-        <v>20</v>
-      </c>
-      <c r="N13" s="19">
-        <v>20</v>
-      </c>
-      <c r="O13" s="19">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.49332999999999999</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.94524405506883602</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.88610763454317898</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.78973717146432998</v>
+      </c>
+      <c r="J13" s="16">
+        <v>71</v>
+      </c>
+      <c r="K13" s="16">
+        <v>247</v>
+      </c>
+      <c r="L13" s="16">
+        <v>556</v>
+      </c>
+      <c r="M13" s="18">
+        <v>11</v>
+      </c>
+      <c r="N13" s="18">
+        <v>16</v>
+      </c>
+      <c r="O13" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6">
-        <v>1692082</v>
+        <v>100000</v>
       </c>
       <c r="D14" s="6">
-        <v>5267656</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>177.2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>3.3645000000000001E-5</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.327204591739643</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.21611186691897899</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="19">
-        <v>17</v>
-      </c>
-      <c r="N14" s="19">
-        <v>50</v>
-      </c>
-      <c r="O14" s="19"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.80584</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.65512999999999999</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.53742999999999996</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.37864999999999999</v>
+      </c>
+      <c r="J14" s="16">
+        <v>91</v>
+      </c>
+      <c r="K14" s="16">
+        <v>523</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1581</v>
+      </c>
+      <c r="M14" s="18">
+        <v>20</v>
+      </c>
+      <c r="N14" s="18">
+        <v>20</v>
+      </c>
+      <c r="O14" s="18">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1242,16 +1251,16 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1260,15 +1269,15 @@
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
@@ -1363,8 +1372,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition ref="F2:F13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I14">
+    <sortCondition ref="F3:F14"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="J1:L1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51C51A-C476-49BB-ABD6-E6111B98291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DC5DA-41D7-404E-8F0B-0ECE2B5D4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,17 +669,27 @@
       <c r="H2" s="10">
         <v>0.21611186691897899</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="11">
+        <v>0.150844344423024</v>
+      </c>
+      <c r="J2" s="16">
+        <v>100</v>
+      </c>
+      <c r="K2" s="16">
+        <v>992</v>
+      </c>
+      <c r="L2" s="16">
+        <v>9415</v>
+      </c>
       <c r="M2" s="18">
         <v>17</v>
       </c>
       <c r="N2" s="18">
         <v>50</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="18">
+        <v>118</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DC5DA-41D7-404E-8F0B-0ECE2B5D4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36F806-489B-432C-AE9D-94DDBEED75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36F806-489B-432C-AE9D-94DDBEED75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88997942-89FD-4AD6-91B1-4811830644C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Dataset</t>
   </si>
@@ -144,17 +144,19 @@
   </si>
   <si>
     <t>1-Items in TopK</t>
+  </si>
+  <si>
+    <t>TopK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -249,11 +257,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -262,7 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -275,11 +306,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,12 +641,12 @@
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +659,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -630,21 +671,26 @@
       <c r="H1" s="5">
         <v>1000</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>10000</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -660,38 +706,47 @@
       <c r="E2" s="3">
         <v>177.2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>3.3645000000000001E-5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.327204591739643</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.21611186691897899</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>0.150844344423024</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="21">
         <v>100</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="15">
+        <v>100</v>
+      </c>
+      <c r="N2" s="15">
         <v>992</v>
       </c>
-      <c r="L2" s="16">
+      <c r="O2" s="15">
         <v>9415</v>
       </c>
-      <c r="M2" s="18">
+      <c r="P2" s="17">
         <v>17</v>
       </c>
-      <c r="N2" s="18">
+      <c r="Q2" s="17">
         <v>50</v>
       </c>
-      <c r="O2" s="18">
+      <c r="R2" s="17">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -707,39 +762,48 @@
       <c r="E3" s="3">
         <v>8.1</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>2.2692883448720301E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>6.34443162741085E-3</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2.3929239999999998E-3</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="21">
         <v>100</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="21">
+        <v>10007</v>
+      </c>
+      <c r="M3" s="15">
+        <v>100</v>
+      </c>
+      <c r="N3" s="15">
         <v>917</v>
       </c>
-      <c r="L3" s="16">
+      <c r="O3" s="15">
         <v>3481</v>
       </c>
-      <c r="M3" s="18">
+      <c r="P3" s="17">
         <v>22</v>
       </c>
-      <c r="N3" s="18">
+      <c r="Q3" s="17">
         <v>104</v>
       </c>
-      <c r="O3" s="18">
+      <c r="R3" s="17">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -754,38 +818,47 @@
       <c r="E4" s="3">
         <v>11.3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1.341848E-2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>3.6410240000000001E-3</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>8.1667800000000004E-4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="21">
+        <v>100</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1001</v>
+      </c>
+      <c r="L4" s="21">
+        <v>10154</v>
+      </c>
+      <c r="M4" s="15">
         <v>98</v>
       </c>
-      <c r="K4" s="16">
+      <c r="N4" s="15">
         <v>509</v>
       </c>
-      <c r="L4" s="16">
+      <c r="O4" s="15">
         <v>758</v>
       </c>
-      <c r="M4" s="18">
+      <c r="P4" s="17">
         <v>38</v>
       </c>
-      <c r="N4" s="18">
+      <c r="Q4" s="17">
         <v>375</v>
       </c>
-      <c r="O4" s="18">
+      <c r="R4" s="17">
         <v>2618</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -801,39 +874,48 @@
       <c r="E5" s="3">
         <v>18.12</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>8.3876000000000003E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>3.26177864510733E-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1.22665179816002E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>5.2969054920546403E-3</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="22">
+        <v>100</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1025</v>
+      </c>
+      <c r="L5" s="22">
+        <v>11257</v>
+      </c>
+      <c r="M5" s="15">
         <v>69</v>
       </c>
-      <c r="K5" s="16">
+      <c r="N5" s="15">
         <v>143</v>
       </c>
-      <c r="L5" s="16">
+      <c r="O5" s="15">
         <v>168</v>
       </c>
-      <c r="M5" s="18">
+      <c r="P5" s="17">
         <v>90</v>
       </c>
-      <c r="N5" s="18">
+      <c r="Q5" s="17">
         <v>482</v>
       </c>
-      <c r="O5" s="18">
+      <c r="R5" s="17">
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -848,39 +930,48 @@
       <c r="E6" s="3">
         <v>11.1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>2.614E-2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="21">
+        <v>100</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1001</v>
+      </c>
+      <c r="L6" s="21">
+        <v>10075</v>
+      </c>
+      <c r="M6" s="15">
         <v>98</v>
       </c>
-      <c r="K6" s="16">
+      <c r="N6" s="15">
         <v>660</v>
       </c>
-      <c r="L6" s="16">
+      <c r="O6" s="15">
         <v>953</v>
       </c>
-      <c r="M6" s="18">
+      <c r="P6" s="17">
         <v>100</v>
       </c>
-      <c r="N6" s="18">
+      <c r="Q6" s="17">
         <v>561</v>
       </c>
-      <c r="O6" s="18">
+      <c r="R6" s="17">
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -895,38 +986,47 @@
       <c r="E7" s="3">
         <v>51.48</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>0.63108102600000004</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>0.47924397499999999</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>0.42480528483464502</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="21">
+        <v>101</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1003</v>
+      </c>
+      <c r="L7" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="15">
         <v>49</v>
       </c>
-      <c r="K7" s="16">
+      <c r="N7" s="15">
         <v>356</v>
       </c>
-      <c r="L7" s="16">
+      <c r="O7" s="15">
         <v>1286</v>
       </c>
-      <c r="M7" s="18">
+      <c r="P7" s="17">
         <v>12</v>
       </c>
-      <c r="N7" s="18">
+      <c r="Q7" s="17">
         <v>34</v>
       </c>
-      <c r="O7" s="18">
+      <c r="R7" s="17">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -942,38 +1042,47 @@
       <c r="E8" s="3">
         <v>74</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0.95771316699999998</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.920299310851037</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>0.86787913400000005</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="21">
+        <v>100</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="21">
+        <v>10002</v>
+      </c>
+      <c r="M8" s="15">
         <v>64</v>
       </c>
-      <c r="K8" s="16">
+      <c r="N8" s="15">
         <v>511</v>
       </c>
-      <c r="L8" s="16">
+      <c r="O8" s="15">
         <v>2444</v>
       </c>
-      <c r="M8" s="18">
+      <c r="P8" s="17">
         <v>12</v>
       </c>
-      <c r="N8" s="18">
+      <c r="Q8" s="17">
         <v>18</v>
       </c>
-      <c r="O8" s="18">
+      <c r="R8" s="17">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -989,38 +1098,47 @@
       <c r="E9" s="3">
         <v>40.6</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>4.3060000000000001E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>9.3280000000000002E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>1.303E-2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="21">
+        <v>100</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="21">
+        <v>10018</v>
+      </c>
+      <c r="M9" s="15">
         <v>97</v>
       </c>
-      <c r="K9" s="16">
+      <c r="N9" s="15">
         <v>865</v>
       </c>
-      <c r="L9" s="16">
+      <c r="O9" s="15">
         <v>2117</v>
       </c>
-      <c r="M9" s="18">
+      <c r="P9" s="17">
         <v>100</v>
       </c>
-      <c r="N9" s="18">
+      <c r="Q9" s="17">
         <v>516</v>
       </c>
-      <c r="O9" s="18">
+      <c r="R9" s="17">
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1036,38 +1154,47 @@
       <c r="E10" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0.81969998499999996</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0.65641140200000003</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>0.48279308500000001</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="21">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="21">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="15">
+        <v>100</v>
+      </c>
+      <c r="N10" s="15">
         <v>986</v>
       </c>
-      <c r="L10" s="16">
+      <c r="O10" s="15">
         <v>9137</v>
       </c>
-      <c r="M10" s="18">
+      <c r="P10" s="17">
         <v>9</v>
       </c>
-      <c r="N10" s="18">
+      <c r="Q10" s="17">
         <v>18</v>
       </c>
-      <c r="O10" s="18">
+      <c r="R10" s="17">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,38 +1210,47 @@
       <c r="E11" s="3">
         <v>23</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>0.12328</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>0.54948301300000002</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>0.364352536</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>0.226489414</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="21">
+        <v>107</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1015</v>
+      </c>
+      <c r="L11" s="21">
+        <v>10011</v>
+      </c>
+      <c r="M11" s="15">
         <v>31</v>
       </c>
-      <c r="K11" s="16">
+      <c r="N11" s="15">
         <v>164</v>
       </c>
-      <c r="L11" s="16">
+      <c r="O11" s="15">
         <v>368</v>
       </c>
-      <c r="M11" s="18">
+      <c r="P11" s="17">
         <v>11</v>
       </c>
-      <c r="N11" s="18">
+      <c r="Q11" s="17">
         <v>24</v>
       </c>
-      <c r="O11" s="18">
+      <c r="R11" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,38 +1266,47 @@
       <c r="E12" s="3">
         <v>43</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0.33333000000000002</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>0.98351022099999996</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>0.96059623699999996</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>0.922702311</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="21">
+        <v>100</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1003</v>
+      </c>
+      <c r="L12" s="21">
+        <v>10015</v>
+      </c>
+      <c r="M12" s="15">
         <v>76</v>
       </c>
-      <c r="K12" s="16">
+      <c r="N12" s="15">
         <v>423</v>
       </c>
-      <c r="L12" s="16">
+      <c r="O12" s="15">
         <v>1605</v>
       </c>
-      <c r="M12" s="18">
+      <c r="P12" s="17">
         <v>10</v>
       </c>
-      <c r="N12" s="18">
+      <c r="Q12" s="17">
         <v>15</v>
       </c>
-      <c r="O12" s="18">
+      <c r="R12" s="17">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,38 +1322,47 @@
       <c r="E13" s="3">
         <v>37</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>0.49332999999999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0.94524405506883602</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>0.88610763454317898</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>0.78973717146432998</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="21">
+        <v>102</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1001</v>
+      </c>
+      <c r="L13" s="21">
+        <v>10028</v>
+      </c>
+      <c r="M13" s="15">
         <v>71</v>
       </c>
-      <c r="K13" s="16">
+      <c r="N13" s="15">
         <v>247</v>
       </c>
-      <c r="L13" s="16">
+      <c r="O13" s="15">
         <v>556</v>
       </c>
-      <c r="M13" s="18">
+      <c r="P13" s="17">
         <v>11</v>
       </c>
-      <c r="N13" s="18">
+      <c r="Q13" s="17">
         <v>16</v>
       </c>
-      <c r="O13" s="18">
+      <c r="R13" s="17">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1224,160 +1378,135 @@
       <c r="E14" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>0.80584</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>0.53742999999999996</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>0.37864999999999999</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="21">
+        <v>100</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1003</v>
+      </c>
+      <c r="L14" s="21">
+        <v>10034</v>
+      </c>
+      <c r="M14" s="15">
         <v>91</v>
       </c>
-      <c r="K14" s="16">
+      <c r="N14" s="15">
         <v>523</v>
       </c>
-      <c r="L14" s="16">
+      <c r="O14" s="15">
         <v>1581</v>
       </c>
-      <c r="M14" s="18">
+      <c r="P14" s="17">
         <v>20</v>
       </c>
-      <c r="N14" s="18">
+      <c r="Q14" s="17">
         <v>20</v>
       </c>
-      <c r="O14" s="18">
+      <c r="R14" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1385,9 +1514,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I14">
     <sortCondition ref="F3:F14"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88997942-89FD-4AD6-91B1-4811830644C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30344D61-96AF-444E-9BD4-661A5632A6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30344D61-96AF-444E-9BD4-661A5632A6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661032A-0448-44FD-8D79-73ED3CFF2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661032A-0448-44FD-8D79-73ED3CFF2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87310085-A778-46EC-A166-969464350D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1329,7 @@
         <v>0.94524405506883602</v>
       </c>
       <c r="H13" s="11">
-        <v>0.88610763454317898</v>
+        <v>0.88642052565707097</v>
       </c>
       <c r="I13" s="12">
         <v>0.78973717146432998</v>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87310085-A778-46EC-A166-969464350D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059B310-1B4E-4E89-8919-FE92CCA42925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,13 +822,13 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.341848E-2</v>
+        <v>1.3531907170889999E-2</v>
       </c>
       <c r="H4" s="11">
-        <v>3.6410240000000001E-3</v>
+        <v>3.6410244776661099E-3</v>
       </c>
       <c r="I4" s="12">
-        <v>8.1667800000000004E-4</v>
+        <v>8.1667838751389396E-4</v>
       </c>
       <c r="J4" s="21">
         <v>100</v>
@@ -837,7 +837,7 @@
         <v>1001</v>
       </c>
       <c r="L4" s="21">
-        <v>10154</v>
+        <v>10167</v>
       </c>
       <c r="M4" s="15">
         <v>98</v>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059B310-1B4E-4E89-8919-FE92CCA42925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6423F-6A2B-4838-B733-8A866BA7213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6423F-6A2B-4838-B733-8A866BA7213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC385B-451A-4C8E-9CFA-98F073CCE2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Dataset</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>TopK</t>
+  </si>
+  <si>
+    <t>0.6310810259756148</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +992,8 @@
       <c r="F7" s="18">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G7" s="11">
-        <v>0.63108102600000004</v>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="11">
         <v>0.47924397499999999</v>
@@ -1105,7 +1108,7 @@
         <v>9.3280000000000002E-2</v>
       </c>
       <c r="H9" s="11">
-        <v>2.6689999999999998E-2</v>
+        <v>2.6929999999999999E-2</v>
       </c>
       <c r="I9" s="12">
         <v>1.303E-2</v>
@@ -1217,7 +1220,7 @@
         <v>0.54948301300000002</v>
       </c>
       <c r="H11" s="11">
-        <v>0.364352536</v>
+        <v>0.36435253569670101</v>
       </c>
       <c r="I11" s="12">
         <v>0.226489414</v>
@@ -1270,13 +1273,13 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="G12" s="11">
-        <v>0.98351022099999996</v>
+        <v>0.983510220998564</v>
       </c>
       <c r="H12" s="11">
-        <v>0.96059623699999996</v>
+        <v>0.960596237251506</v>
       </c>
       <c r="I12" s="12">
-        <v>0.922702311</v>
+        <v>0.92270231064138397</v>
       </c>
       <c r="J12" s="21">
         <v>100</v>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC385B-451A-4C8E-9CFA-98F073CCE2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42FDFF-953B-4F1A-B6E9-D007271723D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42FDFF-953B-4F1A-B6E9-D007271723D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EC9E6-2F16-4C18-9B9A-ACFEAE1C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Dataset</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>TopK</t>
-  </si>
-  <si>
-    <t>0.6310810259756148</t>
   </si>
 </sst>
 </file>
@@ -288,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,7 +629,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +658,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -677,21 +673,21 @@
       <c r="I1" s="8">
         <v>10000</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -709,7 +705,7 @@
       <c r="E2" s="3">
         <v>177.2</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>3.3645000000000001E-5</v>
       </c>
       <c r="G2" s="9">
@@ -721,31 +717,31 @@
       <c r="I2" s="10">
         <v>0.150844344423024</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="20">
         <v>100</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>1000</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>10000</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>100</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>992</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>9415</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>17</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>50</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <v>118</v>
       </c>
     </row>
@@ -765,7 +761,7 @@
       <c r="E3" s="3">
         <v>8.1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="G3" s="9">
@@ -777,36 +773,36 @@
       <c r="I3" s="10">
         <v>2.3929239999999998E-3</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>100</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <v>1000</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>10007</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>917</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>3481</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <v>22</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>104</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="16">
         <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -821,11 +817,11 @@
       <c r="E4" s="3">
         <v>11.3</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.3531907170889999E-2</v>
+        <v>1.35319071708899E-2</v>
       </c>
       <c r="H4" s="11">
         <v>3.6410244776661099E-3</v>
@@ -833,31 +829,31 @@
       <c r="I4" s="12">
         <v>8.1667838751389396E-4</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>100</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <v>1001</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <v>10167</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>98</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>509</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>758</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="16">
         <v>38</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="16">
         <v>375</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="16">
         <v>2618</v>
       </c>
     </row>
@@ -877,7 +873,7 @@
       <c r="E5" s="3">
         <v>18.12</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>8.3876000000000003E-3</v>
       </c>
       <c r="G5" s="11">
@@ -889,36 +885,36 @@
       <c r="I5" s="13">
         <v>5.2969054920546403E-3</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>100</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>1025</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>11257</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>69</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>143</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>168</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>90</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>482</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -933,7 +929,7 @@
       <c r="E6" s="3">
         <v>11.1</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="G6" s="11">
@@ -945,36 +941,36 @@
       <c r="I6" s="12">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>100</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>1001</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>10075</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>98</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>660</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>953</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>100</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>561</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -989,11 +985,11 @@
       <c r="E7" s="3">
         <v>51.48</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>38</v>
+      <c r="G7" s="11">
+        <v>0.631081025975614</v>
       </c>
       <c r="H7" s="11">
         <v>0.47924397499999999</v>
@@ -1001,31 +997,31 @@
       <c r="I7" s="12">
         <v>0.42480528483464502</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>101</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>1003</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>10000</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>49</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>356</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>1286</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>12</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>34</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>45</v>
       </c>
     </row>
@@ -1045,7 +1041,7 @@
       <c r="E8" s="3">
         <v>74</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>3.5020000000000003E-2</v>
       </c>
       <c r="G8" s="11">
@@ -1055,33 +1051,33 @@
         <v>0.920299310851037</v>
       </c>
       <c r="I8" s="12">
-        <v>0.86787913400000005</v>
-      </c>
-      <c r="J8" s="21">
+        <v>0.86787913387432203</v>
+      </c>
+      <c r="J8" s="20">
         <v>100</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>1000</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>10002</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>64</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>511</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>2444</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>12</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>18</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>21</v>
       </c>
     </row>
@@ -1101,7 +1097,7 @@
       <c r="E9" s="3">
         <v>40.6</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>4.3060000000000001E-2</v>
       </c>
       <c r="G9" s="11">
@@ -1113,31 +1109,31 @@
       <c r="I9" s="12">
         <v>1.303E-2</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>100</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>1000</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>10018</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>97</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>865</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>2117</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>100</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>516</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>711</v>
       </c>
     </row>
@@ -1157,7 +1153,7 @@
       <c r="E10" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>7.4219999999999994E-2</v>
       </c>
       <c r="G10" s="11">
@@ -1167,33 +1163,33 @@
         <v>0.65641140200000003</v>
       </c>
       <c r="I10" s="12">
-        <v>0.48279308500000001</v>
-      </c>
-      <c r="J10" s="21">
+        <v>0.48279308489842199</v>
+      </c>
+      <c r="J10" s="20">
         <v>100</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>1000</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>10000</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>100</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>986</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <v>9137</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>9</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>18</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>26</v>
       </c>
     </row>
@@ -1213,7 +1209,7 @@
       <c r="E11" s="3">
         <v>23</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>0.12328</v>
       </c>
       <c r="G11" s="11">
@@ -1225,31 +1221,31 @@
       <c r="I11" s="12">
         <v>0.226489414</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>107</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>1015</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>10011</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>31</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>164</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>368</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>11</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>24</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>40</v>
       </c>
     </row>
@@ -1269,7 +1265,7 @@
       <c r="E12" s="3">
         <v>43</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>0.33333000000000002</v>
       </c>
       <c r="G12" s="11">
@@ -1281,31 +1277,31 @@
       <c r="I12" s="12">
         <v>0.92270231064138397</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>100</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>1003</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>10015</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <v>76</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>423</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="14">
         <v>1605</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>10</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>15</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <v>19</v>
       </c>
     </row>
@@ -1325,7 +1321,7 @@
       <c r="E13" s="3">
         <v>37</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0.49332999999999999</v>
       </c>
       <c r="G13" s="11">
@@ -1337,31 +1333,31 @@
       <c r="I13" s="12">
         <v>0.78973717146432998</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>102</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>1001</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>10028</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <v>71</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>247</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>556</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>11</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>16</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>21</v>
       </c>
     </row>
@@ -1381,43 +1377,43 @@
       <c r="E14" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>0.80584</v>
       </c>
       <c r="G14" s="11">
         <v>0.65512999999999999</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>0.53742999999999996</v>
       </c>
       <c r="I14" s="12">
         <v>0.37864999999999999</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>100</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>1003</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>10034</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>91</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <v>523</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <v>1581</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>20</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>20</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>20</v>
       </c>
     </row>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EC9E6-2F16-4C18-9B9A-ACFEAE1C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDED529-405B-46A9-9B33-C1F38CB0D8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Dataset</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>TopK</t>
+  </si>
+  <si>
+    <t>borgelt</t>
+  </si>
+  <si>
+    <t>https://borgelt.net/software.html</t>
+  </si>
+  <si>
+    <t>0.02614</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +180,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -282,10 +300,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,8 +343,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,21 +694,21 @@
       <c r="I1" s="8">
         <v>10000</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -932,8 +953,8 @@
       <c r="F6" s="17">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G6" s="11">
-        <v>2.614E-2</v>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="11">
         <v>5.2199999999999998E-3</v>
@@ -1507,6 +1528,14 @@
       </c>
       <c r="B26" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1518,8 +1547,11 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{85789C74-4CE6-4EBC-8426-AEADA7254C83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDED529-405B-46A9-9B33-C1F38CB0D8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E2A5B9-5649-434F-915E-85482D846BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E2A5B9-5649-434F-915E-85482D846BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29FC705-BB9F-4425-B446-2DC3B739357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Dataset</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>https://borgelt.net/software.html</t>
-  </si>
-  <si>
-    <t>0.02614</t>
   </si>
 </sst>
 </file>
@@ -650,7 +647,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,8 +950,8 @@
       <c r="F6" s="17">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
+      <c r="G6" s="11">
+        <v>2.614E-2</v>
       </c>
       <c r="H6" s="11">
         <v>5.2199999999999998E-3</v>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29FC705-BB9F-4425-B446-2DC3B739357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379C36D-C4AE-441F-BBC7-9B714CA735DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379C36D-C4AE-441F-BBC7-9B714CA735DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51D0331-7F52-4FF5-97A3-70A0644FAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
+++ b/Python/datasets/Experiments/ARMDatasetFeatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51D0331-7F52-4FF5-97A3-70A0644FAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E5940-350A-4344-B49A-8C9F93D6E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +661,10 @@
     <col min="10" max="15" width="6.140625" customWidth="1"/>
     <col min="16" max="17" width="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +708,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -724,7 +725,8 @@
         <v>177.2</v>
       </c>
       <c r="F2" s="18">
-        <v>3.3645000000000001E-5</v>
+        <f>E2/D2</f>
+        <v>3.363925055090917E-5</v>
       </c>
       <c r="G2" s="9">
         <v>0.327204591739643</v>
@@ -762,8 +764,12 @@
       <c r="R2" s="16">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" s="18">
+        <f>E2/D2</f>
+        <v>3.363925055090917E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +825,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -875,7 +881,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -931,7 +937,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -987,7 +993,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,11 +1441,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
